--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,12 +85,18 @@
     <t>cut</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -124,103 +124,115 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>corona</t>
@@ -581,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +604,7 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8055555555555556</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
@@ -700,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8047945205479452</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,13 +836,13 @@
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -850,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,13 +886,13 @@
         <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,13 +936,13 @@
         <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.582010582010582</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5406976744186046</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C12">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D12">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5254237288135594</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4901960784313725</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7875</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4832214765100671</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,37 +1362,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>33</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7578125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3928571428571428</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
         <v>36</v>
@@ -1442,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2987012987012987</v>
+        <v>0.2375</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7358490566037735</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2341269841269841</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1635388739946381</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6558823529411765</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07333333333333333</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,37 +1762,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01637931034482759</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F25">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,37 +1812,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01355713363460297</v>
+        <v>0.01741935483870968</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E26">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F26">
-        <v>0.8200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1842,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,37 +1862,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008907641819034223</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E27">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="F27">
-        <v>0.6599999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2114</v>
+        <v>2120</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>0.602510460251046</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1892,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1900,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1918,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1926,13 +1938,13 @@
         <v>60</v>
       </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1944,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1952,13 +1964,13 @@
         <v>61</v>
       </c>
       <c r="K30">
-        <v>0.5932203389830508</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L30">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1970,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1978,13 +1990,13 @@
         <v>62</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2004,13 +2016,13 @@
         <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5393258426966292</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2022,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2030,7 +2042,7 @@
         <v>64</v>
       </c>
       <c r="K33">
-        <v>0.4117647058823529</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L33">
         <v>21</v>
@@ -2048,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2056,25 +2068,25 @@
         <v>65</v>
       </c>
       <c r="K34">
-        <v>0.3972602739726027</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>29</v>
-      </c>
-      <c r="M34">
-        <v>29</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2082,13 +2094,13 @@
         <v>66</v>
       </c>
       <c r="K35">
-        <v>0.358974358974359</v>
+        <v>0.359375</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2100,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2108,25 +2120,25 @@
         <v>67</v>
       </c>
       <c r="K36">
-        <v>0.1904761904761905</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L36">
         <v>20</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2134,13 +2146,13 @@
         <v>68</v>
       </c>
       <c r="K37">
-        <v>0.04807692307692308</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2152,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>396</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2160,25 +2172,129 @@
         <v>69</v>
       </c>
       <c r="K38">
-        <v>0.008482563619227144</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3156</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41">
+        <v>0.02108768035516093</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42">
+        <v>0.01319509896324222</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <v>0.7</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3141</v>
       </c>
     </row>
   </sheetData>
